--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_5_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_5_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.978864416780354, 50.054387210883235]</t>
+          <t>[49.978890784935764, 50.054360842727824]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.97650373159118, 50.03005821877635]</t>
+          <t>[49.976475402502885, 50.03008654786464]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.97505275004771, 50.087577393675204]</t>
+          <t>[49.97490876966586, 50.087721374057054]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95985595539871, 50.0331603348003]</t>
+          <t>[49.95988625299445, 50.03313003720456]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_5_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_5_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.978890784935764, 50.054360842727824]</t>
+          <t>[49.978873465474045, 50.05437816218954]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.976475402502885, 50.03008654786464]</t>
+          <t>[49.976459276385256, 50.03010267398227]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.97490876966586, 50.087721374057054]</t>
+          <t>[49.97529103583807, 50.087339107884844]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95988625299445, 50.03313003720456]</t>
+          <t>[49.9597847596511, 50.03323153054791]</t>
         </is>
       </c>
       <c r="U3" t="n">
